--- a/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
+++ b/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:04:46+00:00</t>
+    <t>2023-02-10T15:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
+++ b/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:19:40+00:00</t>
+    <t>2023-02-10T15:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
+++ b/r4-core-64-valuesetoid/CodeSystem-at-core-cs-iso-3166-1-alpha-3.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:28:16+00:00</t>
+    <t>2023-02-14T16:55:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
